--- a/对比.xlsx
+++ b/对比.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xjr\BPs_BPTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1st\BPs_BPTK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4225A30-323F-4331-93E3-98B91E48CB70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89C0F9-01B1-4DBC-B309-E316738CDD5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>best</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +56,34 @@
   </si>
   <si>
     <t>修正均线MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签MRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4(final)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3(SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1(SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2(Norm2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1(Norm1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0(base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,6 +91,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
+    <numFmt numFmtId="181" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +132,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,94 +430,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="6">
+        <v>1.80102768354117E-3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.7632117639295703E-4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.8272185055539001E-4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.6416674265637902E-4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>8.0776255344972004E-4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3.2467369455844099E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.82703E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.9359967708587603E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9.1696158051490697E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.4850845374166896E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.3307344466447796E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.4314848706126199E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="4">
+        <v>0.13020300000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.3716999999999995E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.10340474400000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.10126072</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.7724829999999999E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.15388816899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="4">
+        <v>0.99493699999999996</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.99374940754591501</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.99316715428730995</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.98917937243870202</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.97845409247099602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="6">
+        <v>3.0282400000000001E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.7989385688830098E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.4771539375597002E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.5310086564185899E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.9377980342871497E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5.3245646115973197E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.3410000000000001E-5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.708E-6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.6579999999999997E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.9679999999999997E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.2259999999999999E-6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.4430000000000004E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>7.9805800000000004E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="4">
+        <v>8.9280000000000002E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.9090000000000002E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.3349999999999999E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.826E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.9610000000000001E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.8879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>174.7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>186</v>
+      </c>
+      <c r="D9" s="8">
+        <v>94.85</v>
+      </c>
+      <c r="E9" s="8">
+        <v>47.62</v>
+      </c>
+      <c r="F9" s="8">
+        <v>103.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>422.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.11155625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.99120682656460601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4.9713204384749E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3.7610000000000001E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1.3780000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>90.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7.8059999999999996E-3</v>
+      <c r="B10" s="4">
+        <v>8.1799999999999998E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.5589999999999997E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.1650000000000003E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.888E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3.4079999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/对比.xlsx
+++ b/对比.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1st\BPs_BPTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xjr\BPs_BPTK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89C0F9-01B1-4DBC-B309-E316738CDD5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F86D08B-B0F9-47D1-998F-FFAD42F341E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>MRE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,22 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>均线MAE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修正均线MAE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签MRE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.4(final)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3(SG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,11 +63,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1(Norm1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0(base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4.1(final)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,10 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.0000%"/>
-    <numFmt numFmtId="181" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
+    <numFmt numFmtId="177" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,24 +119,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,248 +412,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.4710662961006095E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.9359967708587603E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.1696158051490697E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.4850845374166896E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.4314848706126199E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.10250199</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.3716999999999995E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.10340474400000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.10126072</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.15388816899999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99163907427915998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.99374940754591501</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.99316715428730995</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.97845409247099602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.33460228383118E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.7989385688830098E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.4771539375597002E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.5310086564185899E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.3245646115973197E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.8429999999999998E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.9090000000000002E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.3349999999999999E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.826E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.8879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.908E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.5589999999999997E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.1650000000000003E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.4079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1.80102768354117E-3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4.7632117639295703E-4</v>
-      </c>
-      <c r="D2" s="6">
-        <v>7.8272185055539001E-4</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3.6416674265637902E-4</v>
-      </c>
-      <c r="F2" s="6">
-        <v>8.0776255344972004E-4</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3.2467369455844099E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1.82703E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5.9359967708587603E-3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>9.1696158051490697E-3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6.4850845374166896E-3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8.3307344466447796E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2.4314848706126199E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.13020300000000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9.3716999999999995E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.10340474400000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.10126072</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9.7724829999999999E-2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.15388816899999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.99493699999999996</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.99374940754591501</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.99316715428730995</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.98917937243870202</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.97845409247099602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3.0282400000000001E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3.7989385688830098E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3.4771539375597002E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5310086564185899E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4.9377980342871497E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5.3245646115973197E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.3410000000000001E-5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.708E-6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.6579999999999997E-5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6.9679999999999997E-5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.2259999999999999E-6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.4430000000000004E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8.9280000000000002E-3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.9090000000000002E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.3349999999999999E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.826E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.9610000000000001E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2.8879999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>174.7</v>
-      </c>
-      <c r="C9" s="8">
-        <v>186</v>
-      </c>
-      <c r="D9" s="8">
-        <v>94.85</v>
-      </c>
-      <c r="E9" s="8">
-        <v>47.62</v>
-      </c>
-      <c r="F9" s="8">
-        <v>103.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>422.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8.1799999999999998E-3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.2449999999999999E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7.5589999999999997E-3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4.1650000000000003E-3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4.888E-3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3.4079999999999999E-2</v>
       </c>
     </row>
   </sheetData>
